--- a/上位接続要求 仕様確認_1208 (PcVue野々村回答).xlsx
+++ b/上位接続要求 仕様確認_1208 (PcVue野々村回答).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目的　構成" sheetId="2" r:id="rId1"/>
@@ -2091,58 +2091,6 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可能です。但し、ソフトウェアの設定についてはトレーニングが必要となります。設定手順を簡略化するため、本ゲートウェイ用のPcVueの専用ソフトウェアを組み込んでご提供します。500千円／台を見込んでおります。</t>
-    <rPh sb="0" eb="2">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>カンリャクカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>センエン</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ミコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2799,6 +2747,58 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能です。但し、ソフトウェアの設定についてはトレーニングが必要となります。設定手順を簡略化するため、本ゲートウェイ用のPcVueの専用ソフトウェアを組み込んでご提供します。780千円／台を見込んでおります。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カンリャクカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センエン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ミコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3147,9 +3147,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3174,12 +3171,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3195,14 +3186,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17393,7 +17393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -17469,8 +17469,8 @@
   </sheetPr>
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17516,7 +17516,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
@@ -17550,7 +17550,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -17619,10 +17619,10 @@
       <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -18026,8 +18026,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="D2" s="12" t="s">
-        <v>140</v>
+      <c r="D2" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.4">
@@ -18044,8 +18044,8 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>108</v>
+      <c r="G3" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -18058,8 +18058,8 @@
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>109</v>
+      <c r="D4" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
@@ -18075,7 +18075,7 @@
       <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -18092,7 +18092,7 @@
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -18109,8 +18109,8 @@
       <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>111</v>
+      <c r="D7" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -18124,8 +18124,8 @@
       <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>112</v>
+      <c r="D8" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -18139,8 +18139,8 @@
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>113</v>
+      <c r="D9" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -18156,14 +18156,14 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>114</v>
+      <c r="D10" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -18175,8 +18175,8 @@
       <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>115</v>
+      <c r="D11" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -18192,8 +18192,8 @@
       <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>116</v>
+      <c r="D12" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>49</v>
@@ -18209,8 +18209,8 @@
       <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>120</v>
+      <c r="D13" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -18226,8 +18226,8 @@
       <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>117</v>
+      <c r="D14" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -18243,8 +18243,8 @@
       <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>118</v>
+      <c r="D15" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -18260,8 +18260,8 @@
       <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>121</v>
+      <c r="D16" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -18277,8 +18277,8 @@
       <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>119</v>
+      <c r="D17" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
@@ -18294,8 +18294,8 @@
       <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>122</v>
+      <c r="D18" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -18311,8 +18311,8 @@
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>123</v>
+      <c r="D19" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -18328,8 +18328,8 @@
       <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>124</v>
+      <c r="D20" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -18346,8 +18346,8 @@
       <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>125</v>
+      <c r="D21" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
@@ -18363,8 +18363,8 @@
       <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>126</v>
+      <c r="D22" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>2</v>
@@ -18380,8 +18380,8 @@
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>127</v>
+      <c r="D23" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -18395,7 +18395,7 @@
       <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -18412,7 +18412,7 @@
       <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -18429,7 +18429,7 @@
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E26" s="2"/>
@@ -18444,8 +18444,8 @@
       <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>128</v>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>4</v>
@@ -18461,8 +18461,8 @@
       <c r="C28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>129</v>
+      <c r="D28" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>31</v>
@@ -18478,8 +18478,8 @@
       <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>130</v>
+      <c r="D29" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -18551,56 +18551,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="60.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="65.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="1.625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="1.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="60.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="65.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="1.625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="2:7" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="150" x14ac:dyDescent="0.4">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
